--- a/test.xlsx
+++ b/test.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="5">
   <si>
-    <t>Predicted</t>
+    <t>Predicted with b0</t>
   </si>
   <si>
-    <t>Corrected</t>
+    <t>Corrected to</t>
   </si>
   <si>
-    <t>arc</t>
-  </si>
-  <si>
-    <t>diff</t>
+    <t>diffuse</t>
   </si>
   <si>
     <t>aurora-less</t>
   </si>
   <si>
-    <t>disc</t>
+    <t>discrete</t>
   </si>
 </sst>
 </file>
@@ -389,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,35 +401,648 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="5">
   <si>
     <t>Predicted with b0</t>
   </si>
@@ -22,13 +22,13 @@
     <t>Corrected to</t>
   </si>
   <si>
+    <t>arc</t>
+  </si>
+  <si>
     <t>discrete</t>
   </si>
   <si>
-    <t>arc</t>
-  </si>
-  <si>
-    <t>diffuse</t>
+    <t>aurora-less</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -437,32 +437,32 @@
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -482,12 +482,12 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -507,11 +507,2006 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2">
+      <c r="B391" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2">
+      <c r="B400" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2">
+      <c r="B402" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2">
+      <c r="B408" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2">
+      <c r="B413" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2">
+      <c r="B414" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2">
+      <c r="B417" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2">
+      <c r="B418" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2">
+      <c r="B423" t="s">
         <v>3</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="4">
   <si>
     <t>Predicted with b0</t>
   </si>
@@ -22,10 +22,7 @@
     <t>Corrected to</t>
   </si>
   <si>
-    <t>aurora-less</t>
-  </si>
-  <si>
-    <t>discrete</t>
+    <t>arc</t>
   </si>
   <si>
     <t>diffuse</t>
@@ -386,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,7 +409,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -422,7 +419,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -432,7 +429,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -447,42 +444,112 @@
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
